--- a/biology/Médecine/Articulation_sterno-costale/Articulation_sterno-costale.xlsx
+++ b/biology/Médecine/Articulation_sterno-costale/Articulation_sterno-costale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les articulations sterno-costales (ou articulations chondrosternales) sont les articulations entre les cartilages costaux des vraies côtes et le sternum.
 </t>
@@ -511,14 +523,51 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier cartilage s'articule avec le manubrium sternal.
 Le deuxième cartilage s'articule avec le manubrium et le corps du sternum.
 Du troisième au sixième cartilage, l'articulation se fait avec le corps du sternum.
 Le septième cartilage s'articule avec le processus xiphoïde.
-Type articulaire
-La première articulation est une articulation fibreuse de type synchondrose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Articulation_sterno-costale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_sterno-costale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Type articulaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première articulation est une articulation fibreuse de type synchondrose.
 Les autres articulations sont de type synoviales.
 Entre l'extrémité médiale des cartilages costaux et le fond des incisures costales du sternum, les ligaments sterno-costaux intra-articulaires subdivise chaque articulation en deux compartiments synoviaux.
 Entre la face antérieure du septième cartilage s'étend un ensemble de faisceaux fibreux qui constituent le ligament costo-xiphoïdien.
@@ -526,31 +575,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Articulation_sterno-costale</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Articulation_sterno-costale</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'intégrité des articulations sterno-costales est importantes pour une bonne mobilité thoracique.
 Une ossification des articulations sterno-costales peut survenir et entraîner une ankylose thoracique.
